--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -71,9 +71,6 @@
 L’instruction suivante figure dans la cellule A33.</t>
   </si>
   <si>
-    <t>Il s’agit d’une ligne vide</t>
-  </si>
-  <si>
     <t>Cette ligne marque la fin des données de jalons du diagramme de Gantt. N’ENTREZ RIEN dans cette ligne. 
 Pour ajouter des éléments, insérez des lignes au-dessus de celle-ci.</t>
   </si>
@@ -90,36 +87,6 @@
     <t>Description du jalon</t>
   </si>
   <si>
-    <t>Titre 1</t>
-  </si>
-  <si>
-    <t>Tâche 1</t>
-  </si>
-  <si>
-    <t>Tâche 2</t>
-  </si>
-  <si>
-    <t>Tâche 3</t>
-  </si>
-  <si>
-    <t>Tâche 4</t>
-  </si>
-  <si>
-    <t>Tâche 5</t>
-  </si>
-  <si>
-    <t>Titre 2</t>
-  </si>
-  <si>
-    <t>Titre 3</t>
-  </si>
-  <si>
-    <t>Titre 4</t>
-  </si>
-  <si>
-    <t>Pour ajouter des données, insérez des lignes AU-DESSUS de celle-ci.</t>
-  </si>
-  <si>
     <t>Date de début du projet :</t>
   </si>
   <si>
@@ -130,9 +97,6 @@
   </si>
   <si>
     <t>Affecté à</t>
-  </si>
-  <si>
-    <t>Nom</t>
   </si>
   <si>
     <t>Avancement</t>
@@ -163,6 +127,153 @@
 Ce texte masqué n’est pas imprimé.
 Pour supprimer ces instructions de la feuille de calcul, supprimez simplement la colonne A.</t>
   </si>
+  <si>
+    <t>Prototypage</t>
+  </si>
+  <si>
+    <t>Réalisation et validation de la maquette</t>
+  </si>
+  <si>
+    <t>Création de l'arborescence</t>
+  </si>
+  <si>
+    <t>Modélisation du diagramme de classe</t>
+  </si>
+  <si>
+    <t>Modélisation de la BDD</t>
+  </si>
+  <si>
+    <t>Création de la BDD</t>
+  </si>
+  <si>
+    <t>Serveur Web</t>
+  </si>
+  <si>
+    <t>Installation d'un serveur web</t>
+  </si>
+  <si>
+    <t>Le site PHP doit être hébergé sur le serveur</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Créer la machine cliente</t>
+  </si>
+  <si>
+    <t>Initialiser le dépôt Git</t>
+  </si>
+  <si>
+    <t>Rédaction documentation Client</t>
+  </si>
+  <si>
+    <t>Rédaction documentation développeur</t>
+  </si>
+  <si>
+    <t>Gestion utilisateur</t>
+  </si>
+  <si>
+    <t>Création service de connexion et déconnexion</t>
+  </si>
+  <si>
+    <t>Service "mot de passe oublié" avec envoi de mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possibilité de modifier son profil </t>
+  </si>
+  <si>
+    <t>Profil administrateur</t>
+  </si>
+  <si>
+    <t>Création des utilisateurs</t>
+  </si>
+  <si>
+    <t>Visualisation des utilisateurs</t>
+  </si>
+  <si>
+    <t>Activation/désactivation des comptes</t>
+  </si>
+  <si>
+    <t>Accès aux données voulues</t>
+  </si>
+  <si>
+    <t>Profil Patient</t>
+  </si>
+  <si>
+    <t>Création de compte</t>
+  </si>
+  <si>
+    <t>Création/Modification/Visualisation du dossier d'admission</t>
+  </si>
+  <si>
+    <t>Prise de RDV avec le médecin</t>
+  </si>
+  <si>
+    <t>Visualisation des RDV</t>
+  </si>
+  <si>
+    <t>Annulation des RDV possible jusqu'à la veille du RDV</t>
+  </si>
+  <si>
+    <t>Profil Médecin</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Visualisation de ses RDV</t>
+  </si>
+  <si>
+    <t>Annulation des RDV possible jusqu'à la veille du RDV (avec envoi d'email)</t>
+  </si>
+  <si>
+    <t>Prise du RDV avec un Patient</t>
+  </si>
+  <si>
+    <t>Création d'ordonnance pour les patients liée au RDV</t>
+  </si>
+  <si>
+    <t>Création compte Patient avec son dossier d'admission si nécessaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des congés pour les médecins </t>
+  </si>
+  <si>
+    <t>Profil Urgence</t>
+  </si>
+  <si>
+    <t>Enregistrement des patients au urgences avec enregistrement des symptomes</t>
+  </si>
+  <si>
+    <t>Priorisation des patients selon trois niveaux (basse/moyenne/haute)</t>
+  </si>
+  <si>
+    <t>Visualisation de l'ensemble des patients en attente d'un diagnostic/actuellement dans un cabinet</t>
+  </si>
+  <si>
+    <t>Affectation des patients dans un cabinet pour un diagnostic</t>
+  </si>
+  <si>
+    <t>Passage en hospitalisation ou non d'un patient diagnostiqué</t>
+  </si>
+  <si>
+    <t>IBRAHIM, IMAN, QUENTIN</t>
+  </si>
+  <si>
+    <t>IMAN</t>
+  </si>
+  <si>
+    <t>QUENTIN, IBRAHIM</t>
+  </si>
+  <si>
+    <t>QUENTIN</t>
+  </si>
+  <si>
+    <t>IBRAHIM, QUENTIN</t>
+  </si>
+  <si>
+    <t>IBRAHIM</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +285,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
@@ -372,6 +483,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -948,7 +1067,7 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1022,14 +1141,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1105,6 +1218,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20 % - Accent1" xfId="27" builtinId="30" customBuiltin="1"/>
@@ -1158,7 +1280,478 @@
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="42">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="8" tint="-0.499984740745262"/>
@@ -1353,20 +1946,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="totalRow" dxfId="36"/>
+      <tableStyleElement type="firstColumn" dxfId="35"/>
+      <tableStyleElement type="lastColumn" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="secondRowStripe" dxfId="32"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="31"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1508,8 +2101,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F32" totalsRowShown="0">
-  <autoFilter ref="B6:F32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F50" totalsRowShown="0">
+  <autoFilter ref="B6:F50">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1517,7 +2110,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon"/>
+    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
     <tableColumn id="3" name="Affecté à"/>
     <tableColumn id="4" name="Avancement"/>
     <tableColumn id="5" name="Début"/>
@@ -1798,10 +2391,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK35"/>
+  <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1822,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1"/>
@@ -1835,57 +2428,57 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56">
+        <v>10</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54">
         <f ca="1">IFERROR(IF(MIN(Jalons[Début])=0,TODAY(),MIN(Jalons[Début])),TODAY())</f>
-        <v>44449</v>
-      </c>
-      <c r="F2" s="57"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+        <v>44446</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="40">
+        <v>11</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="38">
         <v>0</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="47"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="41">
+      <c r="C4" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="39">
         <v>1</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="36">
         <f>Marqueur_Jalon</f>
         <v>1</v>
       </c>
@@ -1921,7 +2514,7 @@
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AC5,"mmmm")=V4,TEXT(AC5,"mmmm")=O4,TEXT(AC5,"mmmm")=H4),"",TEXT(AC5,"mmmm"))</f>
-        <v>octobre</v>
+        <v/>
       </c>
       <c r="AD4" s="17"/>
       <c r="AE4" s="17"/>
@@ -1931,7 +2524,7 @@
       <c r="AI4" s="17"/>
       <c r="AJ4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AJ5,"mmmm")=AC4,TEXT(AJ5,"mmmm")=V4,TEXT(AJ5,"mmmm")=O4,TEXT(AJ5,"mmmm")=H4),"",TEXT(AJ5,"mmmm"))</f>
-        <v/>
+        <v>octobre</v>
       </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="17"/>
@@ -1974,231 +2567,231 @@
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="50">
+      <c r="B5" s="37"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="48">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
+        <v>44446</v>
+      </c>
+      <c r="I5" s="49">
+        <f ca="1">H5+1</f>
+        <v>44447</v>
+      </c>
+      <c r="J5" s="50">
+        <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
+        <v>44448</v>
+      </c>
+      <c r="K5" s="50">
+        <f ca="1">J5+1</f>
         <v>44449</v>
       </c>
-      <c r="I5" s="51">
-        <f ca="1">H5+1</f>
+      <c r="L5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44450</v>
       </c>
-      <c r="J5" s="52">
-        <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
+      <c r="M5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44451</v>
       </c>
-      <c r="K5" s="52">
-        <f ca="1">J5+1</f>
+      <c r="N5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44452</v>
       </c>
-      <c r="L5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="O5" s="50">
+        <f ca="1">N5+1</f>
         <v>44453</v>
       </c>
-      <c r="M5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P5" s="50">
+        <f ca="1">O5+1</f>
         <v>44454</v>
       </c>
-      <c r="N5" s="52">
+      <c r="Q5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44455</v>
       </c>
-      <c r="O5" s="52">
-        <f ca="1">N5+1</f>
+      <c r="R5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44456</v>
       </c>
-      <c r="P5" s="52">
-        <f ca="1">O5+1</f>
+      <c r="S5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44457</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="T5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44458</v>
       </c>
-      <c r="R5" s="52">
+      <c r="U5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44459</v>
       </c>
-      <c r="S5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="V5" s="50">
+        <f ca="1">U5+1</f>
         <v>44460</v>
       </c>
-      <c r="T5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="W5" s="50">
+        <f ca="1">V5+1</f>
         <v>44461</v>
       </c>
-      <c r="U5" s="52">
+      <c r="X5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44462</v>
       </c>
-      <c r="V5" s="52">
-        <f ca="1">U5+1</f>
+      <c r="Y5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44463</v>
       </c>
-      <c r="W5" s="52">
-        <f ca="1">V5+1</f>
+      <c r="Z5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44464</v>
       </c>
-      <c r="X5" s="52">
+      <c r="AA5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44465</v>
       </c>
-      <c r="Y5" s="52">
+      <c r="AB5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44466</v>
       </c>
-      <c r="Z5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AC5" s="50">
+        <f ca="1">AB5+1</f>
         <v>44467</v>
       </c>
-      <c r="AA5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AD5" s="50">
+        <f ca="1">AC5+1</f>
         <v>44468</v>
       </c>
-      <c r="AB5" s="52">
+      <c r="AE5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44469</v>
       </c>
-      <c r="AC5" s="52">
-        <f ca="1">AB5+1</f>
+      <c r="AF5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44470</v>
       </c>
-      <c r="AD5" s="52">
-        <f ca="1">AC5+1</f>
+      <c r="AG5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44471</v>
       </c>
-      <c r="AE5" s="52">
+      <c r="AH5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44472</v>
       </c>
-      <c r="AF5" s="52">
+      <c r="AI5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44473</v>
       </c>
-      <c r="AG5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AJ5" s="50">
+        <f ca="1">AI5+1</f>
         <v>44474</v>
       </c>
-      <c r="AH5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AK5" s="50">
+        <f ca="1">AJ5+1</f>
         <v>44475</v>
       </c>
-      <c r="AI5" s="52">
+      <c r="AL5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44476</v>
       </c>
-      <c r="AJ5" s="52">
-        <f ca="1">AI5+1</f>
+      <c r="AM5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44477</v>
       </c>
-      <c r="AK5" s="52">
-        <f ca="1">AJ5+1</f>
+      <c r="AN5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44478</v>
       </c>
-      <c r="AL5" s="52">
+      <c r="AO5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44479</v>
       </c>
-      <c r="AM5" s="52">
+      <c r="AP5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44480</v>
       </c>
-      <c r="AN5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AQ5" s="50">
+        <f ca="1">AP5+1</f>
         <v>44481</v>
       </c>
-      <c r="AO5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AR5" s="50">
+        <f ca="1">AQ5+1</f>
         <v>44482</v>
       </c>
-      <c r="AP5" s="52">
+      <c r="AS5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44483</v>
       </c>
-      <c r="AQ5" s="52">
-        <f ca="1">AP5+1</f>
+      <c r="AT5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44484</v>
       </c>
-      <c r="AR5" s="52">
-        <f ca="1">AQ5+1</f>
+      <c r="AU5" s="50">
+        <f t="shared" ca="1" si="0"/>
         <v>44485</v>
       </c>
-      <c r="AS5" s="52">
+      <c r="AV5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44486</v>
       </c>
-      <c r="AT5" s="52">
+      <c r="AW5" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>44487</v>
       </c>
-      <c r="AU5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AX5" s="50">
+        <f ca="1">AW5+1</f>
         <v>44488</v>
       </c>
-      <c r="AV5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AY5" s="50">
+        <f ca="1">AX5+1</f>
         <v>44489</v>
       </c>
-      <c r="AW5" s="52">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AZ5" s="50">
+        <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
         <v>44490</v>
       </c>
-      <c r="AX5" s="52">
-        <f ca="1">AW5+1</f>
+      <c r="BA5" s="50">
+        <f t="shared" ca="1" si="1"/>
         <v>44491</v>
       </c>
-      <c r="AY5" s="52">
-        <f ca="1">AX5+1</f>
+      <c r="BB5" s="50">
+        <f t="shared" ca="1" si="1"/>
         <v>44492</v>
       </c>
-      <c r="AZ5" s="52">
-        <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
+      <c r="BC5" s="50">
+        <f t="shared" ca="1" si="1"/>
         <v>44493</v>
       </c>
-      <c r="BA5" s="52">
+      <c r="BD5" s="50">
         <f t="shared" ca="1" si="1"/>
         <v>44494</v>
       </c>
-      <c r="BB5" s="52">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BE5" s="50">
+        <f ca="1">BD5+1</f>
         <v>44495</v>
       </c>
-      <c r="BC5" s="52">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BF5" s="50">
+        <f ca="1">BE5+1</f>
         <v>44496</v>
       </c>
-      <c r="BD5" s="52">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BG5" s="50">
+        <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
         <v>44497</v>
       </c>
-      <c r="BE5" s="52">
-        <f ca="1">BD5+1</f>
+      <c r="BH5" s="50">
+        <f t="shared" ca="1" si="2"/>
         <v>44498</v>
       </c>
-      <c r="BF5" s="52">
-        <f ca="1">BE5+1</f>
+      <c r="BI5" s="50">
+        <f t="shared" ca="1" si="2"/>
         <v>44499</v>
       </c>
-      <c r="BG5" s="52">
-        <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
+      <c r="BJ5" s="50">
+        <f t="shared" ca="1" si="2"/>
         <v>44500</v>
       </c>
-      <c r="BH5" s="52">
+      <c r="BK5" s="51">
         <f t="shared" ca="1" si="2"/>
         <v>44501</v>
-      </c>
-      <c r="BI5" s="52">
-        <f t="shared" ca="1" si="2"/>
-        <v>44502</v>
-      </c>
-      <c r="BJ5" s="52">
-        <f t="shared" ca="1" si="2"/>
-        <v>44503</v>
-      </c>
-      <c r="BK5" s="53">
-        <f t="shared" ca="1" si="2"/>
-        <v>44504</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2206,323 +2799,325 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="43" t="str">
+      <c r="H6" s="41" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
+        <v>m</v>
+      </c>
+      <c r="I6" s="42" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>m</v>
+      </c>
+      <c r="J6" s="44" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>j</v>
+      </c>
+      <c r="K6" s="43" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="I6" s="44" t="str">
+      <c r="L6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="J6" s="46" t="str">
+      <c r="M6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="K6" s="45" t="str">
+      <c r="N6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="L6" s="45" t="str">
+      <c r="O6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="M6" s="45" t="str">
+      <c r="P6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="N6" s="45" t="str">
+      <c r="Q6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="O6" s="45" t="str">
+      <c r="R6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="P6" s="45" t="str">
+      <c r="S6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="Q6" s="45" t="str">
+      <c r="T6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="R6" s="45" t="str">
+      <c r="U6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="S6" s="45" t="str">
+      <c r="V6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="T6" s="45" t="str">
+      <c r="W6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="U6" s="45" t="str">
+      <c r="X6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="V6" s="45" t="str">
+      <c r="Y6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="W6" s="45" t="str">
+      <c r="Z6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="X6" s="45" t="str">
+      <c r="AA6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="Y6" s="45" t="str">
+      <c r="AB6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="Z6" s="45" t="str">
+      <c r="AC6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AA6" s="45" t="str">
+      <c r="AD6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AB6" s="45" t="str">
+      <c r="AE6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="AC6" s="45" t="str">
+      <c r="AF6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="AD6" s="45" t="str">
+      <c r="AG6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="AE6" s="45" t="str">
+      <c r="AH6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="AF6" s="45" t="str">
+      <c r="AI6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="AG6" s="45" t="str">
+      <c r="AJ6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AH6" s="45" t="str">
+      <c r="AK6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AI6" s="45" t="str">
+      <c r="AL6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="AJ6" s="45" t="str">
+      <c r="AM6" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="AK6" s="45" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN6" s="43" t="str">
+        <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
         <v>s</v>
       </c>
-      <c r="AL6" s="45" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AO6" s="43" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="AM6" s="45" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AP6" s="43" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="AN6" s="45" t="str">
-        <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
-        <v>m</v>
-      </c>
-      <c r="AO6" s="45" t="str">
+      <c r="AQ6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AP6" s="45" t="str">
+      <c r="AR6" s="43" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>m</v>
+      </c>
+      <c r="AS6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="AQ6" s="45" t="str">
+      <c r="AT6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="AR6" s="45" t="str">
+      <c r="AU6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="AS6" s="45" t="str">
+      <c r="AV6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="AT6" s="45" t="str">
+      <c r="AW6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="AU6" s="45" t="str">
+      <c r="AX6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AV6" s="45" t="str">
+      <c r="AY6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AW6" s="45" t="str">
+      <c r="AZ6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="AX6" s="45" t="str">
+      <c r="BA6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="AY6" s="45" t="str">
+      <c r="BB6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="AZ6" s="45" t="str">
+      <c r="BC6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="BA6" s="45" t="str">
+      <c r="BD6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="BB6" s="45" t="str">
+      <c r="BE6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="BC6" s="45" t="str">
+      <c r="BF6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="BD6" s="45" t="str">
+      <c r="BG6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="BE6" s="45" t="str">
+      <c r="BH6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="BF6" s="45" t="str">
+      <c r="BI6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="BG6" s="45" t="str">
+      <c r="BJ6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="BH6" s="45" t="str">
+      <c r="BK6" s="43" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
-      </c>
-      <c r="BI6" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>m</v>
-      </c>
-      <c r="BJ6" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>m</v>
-      </c>
-      <c r="BK6" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>j</v>
       </c>
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
       <c r="F7" s="26"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42"/>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="42"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="42"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="42"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="42"/>
-      <c r="BH7" s="42"/>
-      <c r="BI7" s="42"/>
-      <c r="BJ7" s="42"/>
-      <c r="BK7" s="42"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="40"/>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="40"/>
+      <c r="AS7" s="40"/>
+      <c r="AT7" s="40"/>
+      <c r="AU7" s="40"/>
+      <c r="AV7" s="40"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="40"/>
+      <c r="BF7" s="40"/>
+      <c r="BG7" s="40"/>
+      <c r="BH7" s="40"/>
+      <c r="BI7" s="40"/>
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="40"/>
     </row>
     <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="27"/>
+      <c r="B8" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>67</v>
+      </c>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="20"/>
       <c r="H8" s="29" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
@@ -2751,21 +3346,20 @@
     </row>
     <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="31" t="s">
-        <v>15</v>
+      <c r="B9" s="58" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D9" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="25">
-        <f ca="1">TODAY()</f>
-        <v>44453</v>
-      </c>
-      <c r="F9" s="49">
-        <v>3</v>
+        <v>44446</v>
+      </c>
+      <c r="F9" s="47">
+        <v>9</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="29" t="str">
@@ -2995,18 +3589,20 @@
     </row>
     <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
-      <c r="B10" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="27"/>
+      <c r="B10" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>69</v>
+      </c>
       <c r="D10" s="24">
         <v>1</v>
       </c>
       <c r="E10" s="25">
-        <v>44449</v>
-      </c>
-      <c r="F10" s="49">
-        <v>10</v>
+        <v>44446</v>
+      </c>
+      <c r="F10" s="47">
+        <v>9</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="29" t="str">
@@ -3236,19 +3832,20 @@
     </row>
     <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
-      <c r="B11" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="27"/>
+      <c r="B11" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>72</v>
+      </c>
       <c r="D11" s="24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="25">
-        <f ca="1">TODAY()-3</f>
-        <v>44450</v>
-      </c>
-      <c r="F11" s="49">
-        <v>10</v>
+        <v>44446</v>
+      </c>
+      <c r="F11" s="47">
+        <v>9</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="29" t="str">
@@ -3478,16 +4075,19 @@
     </row>
     <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
-      <c r="B12" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.6</v>
+      </c>
       <c r="E12" s="25">
-        <f ca="1">TODAY()+20</f>
-        <v>44473</v>
-      </c>
-      <c r="F12" s="49">
+        <v>44453</v>
+      </c>
+      <c r="F12" s="47">
         <v>1</v>
       </c>
       <c r="G12" s="20"/>
@@ -3519,9 +4119,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O12" s="29" t="str">
+      <c r="O12" s="29">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P12" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
@@ -3587,9 +4187,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF12" s="29">
+      <c r="AF12" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AG12" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
@@ -3718,19 +4318,20 @@
     </row>
     <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
-      <c r="B13" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="27"/>
+      <c r="B13" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>70</v>
+      </c>
       <c r="D13" s="24">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E13" s="25">
-        <f ca="1">TODAY()+6</f>
-        <v>44459</v>
-      </c>
-      <c r="F13" s="49">
-        <v>6</v>
+        <v>44446</v>
+      </c>
+      <c r="F13" s="47">
+        <v>9</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="29" t="str">
@@ -3960,13 +4561,13 @@
     </row>
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
-      <c r="B14" s="33" t="s">
-        <v>20</v>
+      <c r="B14" s="59" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="49"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="20"/>
       <c r="H14" s="29" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
@@ -4195,8 +4796,8 @@
     </row>
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
-      <c r="B15" s="31" t="s">
-        <v>15</v>
+      <c r="B15" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="24">
@@ -4206,7 +4807,7 @@
         <f ca="1">TODAY()+6</f>
         <v>44459</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="47">
         <v>13</v>
       </c>
       <c r="G15" s="20"/>
@@ -4437,8 +5038,8 @@
     </row>
     <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
-      <c r="B16" s="31" t="s">
-        <v>16</v>
+      <c r="B16" s="58" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="24">
@@ -4448,7 +5049,7 @@
         <f ca="1">TODAY()+7</f>
         <v>44460</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="47">
         <v>9</v>
       </c>
       <c r="G16" s="20"/>
@@ -4679,8 +5280,8 @@
     </row>
     <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="31" t="s">
-        <v>17</v>
+      <c r="B17" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="24">
@@ -4690,7 +5291,7 @@
         <f ca="1">TODAY()+15</f>
         <v>44468</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="47">
         <v>11</v>
       </c>
       <c r="G17" s="20"/>
@@ -4921,8 +5522,8 @@
     </row>
     <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
-      <c r="B18" s="31" t="s">
-        <v>18</v>
+      <c r="B18" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="24"/>
@@ -4930,7 +5531,7 @@
         <f ca="1">TODAY()+24</f>
         <v>44477</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="47">
         <v>1</v>
       </c>
       <c r="G18" s="20"/>
@@ -5046,9 +5647,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ18" s="29">
+      <c r="AJ18" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AK18" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
@@ -5058,9 +5659,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM18" s="29" t="str">
+      <c r="AM18" s="29">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AN18" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
@@ -5161,492 +5762,151 @@
     </row>
     <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
-      <c r="B19" s="31" t="s">
-        <v>19</v>
+      <c r="B19" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="25">
-        <f ca="1">TODAY()+25</f>
-        <v>44478</v>
-      </c>
-      <c r="F19" s="49">
-        <v>24</v>
-      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+      <c r="BB19" s="29"/>
+      <c r="BC19" s="29"/>
+      <c r="BD19" s="29"/>
+      <c r="BE19" s="29"/>
+      <c r="BF19" s="29"/>
+      <c r="BG19" s="29"/>
+      <c r="BH19" s="29"/>
+      <c r="BI19" s="29"/>
+      <c r="BJ19" s="29"/>
+      <c r="BK19" s="29"/>
     </row>
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
-      <c r="B20" s="33" t="s">
-        <v>21</v>
+      <c r="B20" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="49"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK20" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E20,$F20=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="29"/>
+      <c r="BE20" s="29"/>
+      <c r="BF20" s="29"/>
+      <c r="BG20" s="29"/>
+      <c r="BH20" s="29"/>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="29"/>
+      <c r="BK20" s="29"/>
     </row>
     <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="31" t="s">
-        <v>15</v>
+      <c r="B21" s="58" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="24"/>
       <c r="E21" s="25">
-        <f ca="1">TODAY()+15</f>
-        <v>44468</v>
-      </c>
-      <c r="F21" s="49">
-        <v>4</v>
+        <f ca="1">TODAY()+25</f>
+        <v>44478</v>
+      </c>
+      <c r="F21" s="47">
+        <v>24</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="29" t="str">
@@ -5876,257 +6136,252 @@
     </row>
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
-      <c r="B22" s="31" t="s">
-        <v>16</v>
+      <c r="B22" s="59" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="25">
-        <f ca="1">TODAY()+19</f>
-        <v>44472</v>
-      </c>
-      <c r="F22" s="49">
-        <v>14</v>
-      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="20"/>
       <c r="H22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
-      <c r="B23" s="31" t="s">
-        <v>17</v>
+      <c r="B23" s="58" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="24"/>
       <c r="E23" s="25">
-        <f ca="1">TODAY()+35</f>
-        <v>44488</v>
-      </c>
-      <c r="F23" s="49">
-        <v>6</v>
+        <f ca="1">TODAY()+15</f>
+        <v>44468</v>
+      </c>
+      <c r="F23" s="47">
+        <v>4</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="29" t="str">
@@ -6356,17 +6611,17 @@
     </row>
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
-      <c r="B24" s="31" t="s">
-        <v>18</v>
+      <c r="B24" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25">
-        <f ca="1">TODAY()+48</f>
-        <v>44501</v>
-      </c>
-      <c r="F24" s="49">
-        <v>3</v>
+        <f ca="1">TODAY()+19</f>
+        <v>44472</v>
+      </c>
+      <c r="F24" s="47">
+        <v>14</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="29" t="str">
@@ -6596,17 +6851,17 @@
     </row>
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
-      <c r="B25" s="31" t="s">
-        <v>19</v>
+      <c r="B25" s="58" t="s">
+        <v>41</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25">
-        <f ca="1">TODAY()+40</f>
-        <v>44493</v>
-      </c>
-      <c r="F25" s="49">
-        <v>19</v>
+        <f ca="1">TODAY()+35</f>
+        <v>44488</v>
+      </c>
+      <c r="F25" s="47">
+        <v>6</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="29" t="str">
@@ -6836,13 +7091,13 @@
     </row>
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
-      <c r="B26" s="33" t="s">
-        <v>22</v>
+      <c r="B26" s="59" t="s">
+        <v>42</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
-      <c r="F26" s="49"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="20"/>
       <c r="H26" s="29" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
@@ -7071,8 +7326,8 @@
     </row>
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
-      <c r="B27" s="31" t="s">
-        <v>15</v>
+      <c r="B27" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="24"/>
@@ -7080,7 +7335,7 @@
         <f ca="1">TODAY()+37</f>
         <v>44490</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="47">
         <v>15</v>
       </c>
       <c r="G27" s="20"/>
@@ -7311,8 +7566,8 @@
     </row>
     <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
-      <c r="B28" s="31" t="s">
-        <v>16</v>
+      <c r="B28" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="24"/>
@@ -7320,7 +7575,7 @@
         <f ca="1">TODAY()+29</f>
         <v>44482</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="47">
         <v>5</v>
       </c>
       <c r="G28" s="20"/>
@@ -7551,8 +7806,8 @@
     </row>
     <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
-      <c r="B29" s="31" t="s">
-        <v>17</v>
+      <c r="B29" s="58" t="s">
+        <v>45</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="24"/>
@@ -7560,7 +7815,7 @@
         <f ca="1">TODAY()+80</f>
         <v>44533</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="47">
         <v>5</v>
       </c>
       <c r="G29" s="20"/>
@@ -7791,13 +8046,13 @@
     </row>
     <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
-      <c r="B30" s="31" t="s">
-        <v>18</v>
+      <c r="B30" s="58" t="s">
+        <v>46</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="24"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="49"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="20"/>
       <c r="H30" s="29" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
@@ -8026,13 +8281,13 @@
     </row>
     <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
-      <c r="B31" s="31" t="s">
-        <v>19</v>
+      <c r="B31" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
-      <c r="F31" s="49"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="20"/>
       <c r="H31" s="29" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E31,$F31=1),Marqueur_Jalon,"")),"")</f>
@@ -8260,316 +8515,4569 @@
       </c>
     </row>
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="31"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="58" t="s">
+        <v>48</v>
+      </c>
       <c r="C32" s="27"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="49"/>
+      <c r="E32" s="25">
+        <f ca="1">TODAY()+29</f>
+        <v>44482</v>
+      </c>
+      <c r="F32" s="47">
+        <v>5</v>
+      </c>
       <c r="G32" s="20"/>
       <c r="H32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK32" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E32,$F32=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
-      <c r="AM33" s="28"/>
-      <c r="AN33" s="28"/>
-      <c r="AO33" s="28"/>
-      <c r="AP33" s="28"/>
-      <c r="AQ33" s="28"/>
-      <c r="AR33" s="28"/>
-      <c r="AS33" s="28"/>
-      <c r="AT33" s="28"/>
-      <c r="AU33" s="28"/>
-      <c r="AV33" s="28"/>
-      <c r="AW33" s="28"/>
-      <c r="AX33" s="28"/>
-      <c r="AY33" s="28"/>
-      <c r="AZ33" s="28"/>
-      <c r="BA33" s="28"/>
-      <c r="BB33" s="28"/>
-      <c r="BC33" s="28"/>
-      <c r="BD33" s="28"/>
-      <c r="BE33" s="28"/>
-      <c r="BF33" s="28"/>
-      <c r="BG33" s="28"/>
-      <c r="BH33" s="28"/>
-      <c r="BI33" s="28"/>
-      <c r="BJ33" s="28"/>
-      <c r="BK33" s="28"/>
+    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25">
+        <f ca="1">TODAY()+29</f>
+        <v>44482</v>
+      </c>
+      <c r="F33" s="47">
+        <v>5</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK33" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="34" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="5"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="4"/>
+    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
+      <c r="E34" s="25">
+        <v>44449</v>
+      </c>
+      <c r="F34" s="47">
+        <v>4</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK34" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="35" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="6"/>
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12"/>
+      <c r="B35" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK35" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E35,$F35=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
+      <c r="B36" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="24">
+        <v>1</v>
+      </c>
+      <c r="E36" s="25">
+        <f ca="1">TODAY()+29</f>
+        <v>44482</v>
+      </c>
+      <c r="F36" s="47">
+        <v>5</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK36" s="29" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12"/>
+      <c r="B37" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK37" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK38" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12"/>
+      <c r="B39" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK39" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12"/>
+      <c r="B40" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK41" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="12"/>
+      <c r="B42" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK42" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12"/>
+      <c r="B43" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK43" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12"/>
+      <c r="B44" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK44" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
+      <c r="B45" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK45" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12"/>
+      <c r="B46" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK46" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E46,$F46=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12"/>
+      <c r="B47" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK47" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E47,$F47=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12"/>
+      <c r="B48" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK48" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E48,$F48=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="12"/>
+      <c r="B49" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK49" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E49,$F49=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="12"/>
+      <c r="B50" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK50" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E50,$F50=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="28"/>
+      <c r="AI51" s="28"/>
+      <c r="AJ51" s="28"/>
+      <c r="AK51" s="28"/>
+      <c r="AL51" s="28"/>
+      <c r="AM51" s="28"/>
+      <c r="AN51" s="28"/>
+      <c r="AO51" s="28"/>
+      <c r="AP51" s="28"/>
+      <c r="AQ51" s="28"/>
+      <c r="AR51" s="28"/>
+      <c r="AS51" s="28"/>
+      <c r="AT51" s="28"/>
+      <c r="AU51" s="28"/>
+      <c r="AV51" s="28"/>
+      <c r="AW51" s="28"/>
+      <c r="AX51" s="28"/>
+      <c r="AY51" s="28"/>
+      <c r="AZ51" s="28"/>
+      <c r="BA51" s="28"/>
+      <c r="BB51" s="28"/>
+      <c r="BC51" s="28"/>
+      <c r="BD51" s="28"/>
+      <c r="BE51" s="28"/>
+      <c r="BF51" s="28"/>
+      <c r="BG51" s="28"/>
+      <c r="BH51" s="28"/>
+      <c r="BI51" s="28"/>
+      <c r="BJ51" s="28"/>
+      <c r="BK51" s="28"/>
+    </row>
+    <row r="52" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="5"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8578,8 +13086,8 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D32">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="D6:D30">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8592,19 +13100,179 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:BK32">
-    <cfRule type="expression" dxfId="2" priority="78">
+  <conditionalFormatting sqref="H8:BK30">
+    <cfRule type="expression" dxfId="29" priority="116">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK32">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="H7:BK30">
+    <cfRule type="expression" dxfId="28" priority="49" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="27" priority="39">
       <formula>H$5&lt;=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90808BBC-576F-4D03-BE95-19875F546201}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:BK31">
+    <cfRule type="expression" dxfId="26" priority="37">
+      <formula>H$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:BK31">
+    <cfRule type="expression" dxfId="25" priority="36" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E31+1,H$5&lt;=$E31+$F31-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1F485DD0-9FF6-41BC-91CE-6A1E7534F40D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:BK32">
+    <cfRule type="expression" dxfId="24" priority="33">
+      <formula>H$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:BK32">
+    <cfRule type="expression" dxfId="23" priority="32" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E32+1,H$5&lt;=$E32+$F32-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5668ABD7-A53E-4323-A024-ADD26252E5C8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:BK34">
+    <cfRule type="expression" dxfId="22" priority="29">
+      <formula>H$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:BK34">
+    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E33+1,H$5&lt;=$E33+$F33-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D43">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{15A97EF6-562B-41A2-AB34-338C65213F4E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D50">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B5581F5E-0A2A-4D3B-B3AC-05115635E1AF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:BK40">
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>H$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:BK40">
+    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E35+1,H$5&lt;=$E35+$F35-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:BK41">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>H$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:BK41">
+    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E41+1,H$5&lt;=$E41+$F41-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:BK49">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>H$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:BK49">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E49+1,H$5&lt;=$E49+$F49-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:BK50">
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>H$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:BK50">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E50+1,H$5&lt;=$E50+$F50-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:BK47">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>H$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:BK47">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E42+1,H$5&lt;=$E42+$F42-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:BK48">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>H$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:BK48">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E48+1,H$5&lt;=$E48+$F48-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -8667,29 +13335,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D32</xm:sqref>
+          <xm:sqref>D6:D30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H7:BK32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
+          <x14:cfRule type="iconSet" priority="40" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
             <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8706,6 +13355,271 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>F4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="123" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H7:BK30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90808BBC-576F-4D03-BE95-19875F546201}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="38" id="{8BDA2302-419A-45F0-9183-CDACA8F3F242}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H31:BK31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1F485DD0-9FF6-41BC-91CE-6A1E7534F40D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="34" id="{27411EE4-BF73-456E-BC51-9B25067F61E9}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H32:BK32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5668ABD7-A53E-4323-A024-ADD26252E5C8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:D36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="30" id="{6D859398-D171-4E0B-88C4-06D717EF3E19}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H33:BK34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{15A97EF6-562B-41A2-AB34-338C65213F4E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D37:D43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B5581F5E-0A2A-4D3B-B3AC-05115635E1AF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D44:D50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{22111A0C-129B-4AC1-B5E3-2471D54CF89B}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H35:BK40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{0A5048B7-6349-454C-B199-58F5997EACE0}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H41:BK41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{588837EF-B611-43B4-BF44-6E6E3217648A}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H49:BK49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{34C1C91F-1B7C-4976-BBF6-42335A3561ED}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H50:BK50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{71A51038-DEFD-46FF-9963-539D40E3E6AA}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H42:BK47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{C723BF28-69C0-4A12-BCFF-910A4C9C9732}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H48:BK48</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8726,23 +13640,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="9" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="34" t="s">
-        <v>32</v>
+      <c r="A1" s="32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
-        <v>33</v>
+      <c r="A2" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>34</v>
+      <c r="A3" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -1208,6 +1208,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1225,21 +1240,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2273,8 +2273,8 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2310,15 +2310,15 @@
       <c r="B2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59">
         <f ca="1">IFERROR(IF(MIN(Jalons[Début])=0,TODAY(),MIN(Jalons[Début])),TODAY())</f>
         <v>44446</v>
       </c>
-      <c r="F2" s="55"/>
+      <c r="F2" s="60"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
@@ -2333,10 +2333,10 @@
       <c r="B3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="36">
         <v>0</v>
       </c>
@@ -2351,10 +2351,10 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="37">
         <v>1</v>
       </c>
@@ -2924,8 +2924,8 @@
         <v>6</v>
       </c>
       <c r="B7" s="50"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
       <c r="H7" s="38"/>
@@ -2989,13 +2989,13 @@
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="59"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="24"/>
       <c r="F8" s="45"/>
       <c r="G8" s="20"/>
@@ -3229,11 +3229,11 @@
       <c r="B9" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="59">
-        <v>90</v>
+      <c r="D9" s="53">
+        <v>0.9</v>
       </c>
       <c r="E9" s="24">
         <v>44446</v>
@@ -3472,10 +3472,10 @@
       <c r="B10" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="53">
         <v>1</v>
       </c>
       <c r="E10" s="24">
@@ -3715,10 +3715,10 @@
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="53">
         <v>1</v>
       </c>
       <c r="E11" s="24">
@@ -3958,10 +3958,10 @@
       <c r="B12" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="53">
         <v>0.6</v>
       </c>
       <c r="E12" s="24">
@@ -4201,10 +4201,10 @@
       <c r="B13" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="53">
         <v>0.7</v>
       </c>
       <c r="E13" s="24">
@@ -4441,13 +4441,13 @@
     </row>
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="59"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="24"/>
       <c r="F14" s="45"/>
       <c r="G14" s="20"/>
@@ -4681,13 +4681,15 @@
       <c r="B15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="53">
         <v>0</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="24">
+        <v>44460</v>
+      </c>
       <c r="F15" s="45"/>
       <c r="G15" s="20"/>
       <c r="H15" s="27" t="str">
@@ -4920,13 +4922,15 @@
       <c r="B16" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="53">
         <v>0</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="24">
+        <v>44460</v>
+      </c>
       <c r="F16" s="45"/>
       <c r="G16" s="20"/>
       <c r="H16" s="27" t="str">
@@ -5159,13 +5163,15 @@
       <c r="B17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="53">
         <v>0</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="24">
+        <v>44460</v>
+      </c>
       <c r="F17" s="45"/>
       <c r="G17" s="20"/>
       <c r="H17" s="27" t="str">
@@ -5398,13 +5404,15 @@
       <c r="B18" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="53">
         <v>0</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="24">
+        <v>44460</v>
+      </c>
       <c r="F18" s="45"/>
       <c r="G18" s="20"/>
       <c r="H18" s="27" t="str">
@@ -5637,13 +5645,15 @@
       <c r="B19" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="53">
         <v>0</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="24">
+        <v>44537</v>
+      </c>
       <c r="F19" s="45"/>
       <c r="G19" s="20"/>
       <c r="H19" s="27"/>
@@ -5708,13 +5718,15 @@
       <c r="B20" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="53">
         <v>0</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="24">
+        <v>44537</v>
+      </c>
       <c r="F20" s="45"/>
       <c r="G20" s="20"/>
       <c r="H20" s="27"/>
@@ -5779,13 +5791,15 @@
       <c r="B21" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="53">
         <v>0</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="24">
+        <v>44460</v>
+      </c>
       <c r="F21" s="45"/>
       <c r="G21" s="20"/>
       <c r="H21" s="27" t="str">
@@ -6015,13 +6029,13 @@
     </row>
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="59"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="24"/>
       <c r="F22" s="45"/>
       <c r="G22" s="20"/>
@@ -6255,13 +6269,15 @@
       <c r="B23" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="53">
         <v>0</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="24">
+        <v>44467</v>
+      </c>
       <c r="F23" s="45"/>
       <c r="G23" s="20"/>
       <c r="H23" s="27" t="str">
@@ -6494,13 +6510,15 @@
       <c r="B24" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="53">
         <v>0</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="24">
+        <v>44467</v>
+      </c>
       <c r="F24" s="45"/>
       <c r="G24" s="20"/>
       <c r="H24" s="27" t="str">
@@ -6733,13 +6751,15 @@
       <c r="B25" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="53">
         <v>0</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="24">
+        <v>44467</v>
+      </c>
       <c r="F25" s="45"/>
       <c r="G25" s="20"/>
       <c r="H25" s="27" t="str">
@@ -6969,13 +6989,13 @@
     </row>
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="24"/>
       <c r="F26" s="45"/>
       <c r="G26" s="20"/>
@@ -7209,13 +7229,15 @@
       <c r="B27" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="53">
         <v>0</v>
       </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="24">
+        <v>44467</v>
+      </c>
       <c r="F27" s="45"/>
       <c r="G27" s="20"/>
       <c r="H27" s="27" t="str">
@@ -7448,13 +7470,15 @@
       <c r="B28" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="53">
         <v>0</v>
       </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="24">
+        <v>44474</v>
+      </c>
       <c r="F28" s="45"/>
       <c r="G28" s="20"/>
       <c r="H28" s="27" t="str">
@@ -7687,13 +7711,15 @@
       <c r="B29" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="53">
         <v>0</v>
       </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="24">
+        <v>44474</v>
+      </c>
       <c r="F29" s="45"/>
       <c r="G29" s="20"/>
       <c r="H29" s="27" t="str">
@@ -7926,13 +7952,15 @@
       <c r="B30" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="59">
+      <c r="D30" s="53">
         <v>0</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="24">
+        <v>44474</v>
+      </c>
       <c r="F30" s="45"/>
       <c r="G30" s="20"/>
       <c r="H30" s="27" t="str">
@@ -8162,13 +8190,13 @@
     </row>
     <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="24"/>
       <c r="F31" s="45"/>
       <c r="G31" s="20"/>
@@ -8402,10 +8430,10 @@
       <c r="B32" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="53">
         <v>0</v>
       </c>
       <c r="E32" s="24"/>
@@ -8641,10 +8669,10 @@
       <c r="B33" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="53">
         <v>0</v>
       </c>
       <c r="E33" s="24"/>
@@ -8880,10 +8908,10 @@
       <c r="B34" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="53">
         <v>0</v>
       </c>
       <c r="E34" s="24"/>
@@ -9119,10 +9147,10 @@
       <c r="B35" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="53">
         <v>0</v>
       </c>
       <c r="E35" s="24"/>
@@ -9358,10 +9386,10 @@
       <c r="B36" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="53">
         <v>0</v>
       </c>
       <c r="E36" s="24"/>
@@ -9594,13 +9622,13 @@
     </row>
     <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="59"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="24"/>
       <c r="F37" s="45"/>
       <c r="G37" s="20"/>
@@ -9836,10 +9864,10 @@
       <c r="B38" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="59">
+      <c r="D38" s="53">
         <v>0</v>
       </c>
       <c r="E38" s="24"/>
@@ -10075,10 +10103,10 @@
       <c r="B39" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="59">
+      <c r="D39" s="53">
         <v>0</v>
       </c>
       <c r="E39" s="24"/>
@@ -10314,10 +10342,10 @@
       <c r="B40" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="59">
+      <c r="D40" s="53">
         <v>0</v>
       </c>
       <c r="E40" s="24"/>
@@ -10553,10 +10581,10 @@
       <c r="B41" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="59">
+      <c r="D41" s="53">
         <v>0</v>
       </c>
       <c r="E41" s="24"/>
@@ -10792,10 +10820,10 @@
       <c r="B42" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="59">
+      <c r="D42" s="53">
         <v>0</v>
       </c>
       <c r="E42" s="24"/>
@@ -11031,10 +11059,10 @@
       <c r="B43" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="53">
         <v>0</v>
       </c>
       <c r="E43" s="24"/>
@@ -11267,13 +11295,13 @@
     </row>
     <row r="44" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="59"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="24"/>
       <c r="F44" s="45"/>
       <c r="G44" s="20"/>
@@ -11507,10 +11535,10 @@
       <c r="B45" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="59">
+      <c r="D45" s="53">
         <v>0</v>
       </c>
       <c r="E45" s="24"/>
@@ -11746,10 +11774,10 @@
       <c r="B46" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="59">
+      <c r="D46" s="53">
         <v>0</v>
       </c>
       <c r="E46" s="24"/>
@@ -11985,10 +12013,10 @@
       <c r="B47" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="59">
+      <c r="D47" s="53">
         <v>0</v>
       </c>
       <c r="E47" s="24"/>
@@ -12224,10 +12252,10 @@
       <c r="B48" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="59">
+      <c r="D48" s="53">
         <v>0</v>
       </c>
       <c r="E48" s="24"/>
@@ -12463,10 +12491,10 @@
       <c r="B49" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="59">
+      <c r="D49" s="53">
         <v>0</v>
       </c>
       <c r="E49" s="24"/>
@@ -12702,10 +12730,10 @@
       <c r="B50" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="59">
+      <c r="D50" s="53">
         <v>0</v>
       </c>
       <c r="E50" s="24"/>
@@ -13510,215 +13538,6 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="58" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
-            <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="141" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H7:BK30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="56" id="{8BDA2302-419A-45F0-9183-CDACA8F3F242}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H31:BK31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="52" id="{27411EE4-BF73-456E-BC51-9B25067F61E9}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H32:BK32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="48" id="{6D859398-D171-4E0B-88C4-06D717EF3E19}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H33:BK34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{22111A0C-129B-4AC1-B5E3-2471D54CF89B}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H35:BK40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{0A5048B7-6349-454C-B199-58F5997EACE0}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H41:BK41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{588837EF-B611-43B4-BF44-6E6E3217648A}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H49:BK49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{34C1C91F-1B7C-4976-BBF6-42335A3561ED}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H50:BK50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{71A51038-DEFD-46FF-9963-539D40E3E6AA}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H42:BK47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{C723BF28-69C0-4A12-BCFF-910A4C9C9732}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H48:BK48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{043EBCC9-B287-4EA6-BDA9-2E16BDC9759A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -13988,6 +13807,215 @@
           </x14:cfRule>
           <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="58" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
+            <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="141" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H7:BK30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="56" id="{8BDA2302-419A-45F0-9183-CDACA8F3F242}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H31:BK31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="52" id="{27411EE4-BF73-456E-BC51-9B25067F61E9}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H32:BK32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="48" id="{6D859398-D171-4E0B-88C4-06D717EF3E19}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H33:BK34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="36" id="{22111A0C-129B-4AC1-B5E3-2471D54CF89B}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H35:BK40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="33" id="{0A5048B7-6349-454C-B199-58F5997EACE0}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H41:BK41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="30" id="{588837EF-B611-43B4-BF44-6E6E3217648A}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H49:BK49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="27" id="{34C1C91F-1B7C-4976-BBF6-42335A3561ED}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H50:BK50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="24" id="{71A51038-DEFD-46FF-9963-539D40E3E6AA}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H42:BK47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="21" id="{C723BF28-69C0-4A12-BCFF-910A4C9C9732}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H48:BK48</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/GanttV1.xlsx
+++ b/GanttV1.xlsx
@@ -2273,8 +2273,8 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="24">
-        <v>44474</v>
+        <v>44481</v>
       </c>
       <c r="F28" s="45"/>
       <c r="G28" s="20"/>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="24">
-        <v>44474</v>
+        <v>44481</v>
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="20"/>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="24">
-        <v>44474</v>
+        <v>44481</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="20"/>
@@ -8436,7 +8436,9 @@
       <c r="D32" s="53">
         <v>0</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="24">
+        <v>44488</v>
+      </c>
       <c r="F32" s="45"/>
       <c r="G32" s="20"/>
       <c r="H32" s="27" t="str">
@@ -8675,7 +8677,9 @@
       <c r="D33" s="53">
         <v>0</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="24">
+        <v>44502</v>
+      </c>
       <c r="F33" s="45"/>
       <c r="G33" s="20"/>
       <c r="H33" s="27" t="str">
@@ -8914,7 +8918,9 @@
       <c r="D34" s="53">
         <v>0</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="24">
+        <v>44502</v>
+      </c>
       <c r="F34" s="45"/>
       <c r="G34" s="20"/>
       <c r="H34" s="27" t="str">
@@ -9153,7 +9159,9 @@
       <c r="D35" s="53">
         <v>0</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="24">
+        <v>44516</v>
+      </c>
       <c r="F35" s="45"/>
       <c r="G35" s="20"/>
       <c r="H35" s="27" t="str">
@@ -9392,7 +9400,9 @@
       <c r="D36" s="53">
         <v>0</v>
       </c>
-      <c r="E36" s="24"/>
+      <c r="E36" s="24">
+        <v>44516</v>
+      </c>
       <c r="F36" s="45"/>
       <c r="G36" s="20"/>
       <c r="H36" s="27" t="str">
@@ -9870,7 +9880,9 @@
       <c r="D38" s="53">
         <v>0</v>
       </c>
-      <c r="E38" s="24"/>
+      <c r="E38" s="24">
+        <v>44488</v>
+      </c>
       <c r="F38" s="45"/>
       <c r="G38" s="20"/>
       <c r="H38" s="27" t="str">
@@ -10109,7 +10121,9 @@
       <c r="D39" s="53">
         <v>0</v>
       </c>
-      <c r="E39" s="24"/>
+      <c r="E39" s="24">
+        <v>44488</v>
+      </c>
       <c r="F39" s="45"/>
       <c r="G39" s="20"/>
       <c r="H39" s="27" t="str">
@@ -10348,7 +10362,9 @@
       <c r="D40" s="53">
         <v>0</v>
       </c>
-      <c r="E40" s="24"/>
+      <c r="E40" s="24">
+        <v>44502</v>
+      </c>
       <c r="F40" s="45"/>
       <c r="G40" s="20"/>
       <c r="H40" s="27" t="str">
@@ -10587,7 +10603,9 @@
       <c r="D41" s="53">
         <v>0</v>
       </c>
-      <c r="E41" s="24"/>
+      <c r="E41" s="24">
+        <v>44516</v>
+      </c>
       <c r="F41" s="45"/>
       <c r="G41" s="20"/>
       <c r="H41" s="27" t="str">
@@ -10826,7 +10844,9 @@
       <c r="D42" s="53">
         <v>0</v>
       </c>
-      <c r="E42" s="24"/>
+      <c r="E42" s="24">
+        <v>44523</v>
+      </c>
       <c r="F42" s="45"/>
       <c r="G42" s="20"/>
       <c r="H42" s="27" t="str">
@@ -11065,7 +11085,9 @@
       <c r="D43" s="53">
         <v>0</v>
       </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="24">
+        <v>44530</v>
+      </c>
       <c r="F43" s="45"/>
       <c r="G43" s="20"/>
       <c r="H43" s="27" t="str">
@@ -11541,7 +11563,9 @@
       <c r="D45" s="53">
         <v>0</v>
       </c>
-      <c r="E45" s="24"/>
+      <c r="E45" s="24">
+        <v>44488</v>
+      </c>
       <c r="F45" s="45"/>
       <c r="G45" s="20"/>
       <c r="H45" s="27" t="str">
@@ -11780,7 +11804,9 @@
       <c r="D46" s="53">
         <v>0</v>
       </c>
-      <c r="E46" s="24"/>
+      <c r="E46" s="24">
+        <v>44488</v>
+      </c>
       <c r="F46" s="45"/>
       <c r="G46" s="20"/>
       <c r="H46" s="27" t="str">
@@ -12019,7 +12045,9 @@
       <c r="D47" s="53">
         <v>0</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="24">
+        <v>44502</v>
+      </c>
       <c r="F47" s="45"/>
       <c r="G47" s="20"/>
       <c r="H47" s="27" t="str">
@@ -12258,7 +12286,9 @@
       <c r="D48" s="53">
         <v>0</v>
       </c>
-      <c r="E48" s="24"/>
+      <c r="E48" s="24">
+        <v>44516</v>
+      </c>
       <c r="F48" s="45"/>
       <c r="G48" s="20"/>
       <c r="H48" s="27" t="str">
@@ -12497,7 +12527,9 @@
       <c r="D49" s="53">
         <v>0</v>
       </c>
-      <c r="E49" s="24"/>
+      <c r="E49" s="24">
+        <v>44516</v>
+      </c>
       <c r="F49" s="45"/>
       <c r="G49" s="20"/>
       <c r="H49" s="27" t="str">
@@ -12736,7 +12768,9 @@
       <c r="D50" s="53">
         <v>0</v>
       </c>
-      <c r="E50" s="24"/>
+      <c r="E50" s="24">
+        <v>44523</v>
+      </c>
       <c r="F50" s="45"/>
       <c r="G50" s="20"/>
       <c r="H50" s="27" t="str">
